--- a/程序员客栈项目/因卓科技教育平台/需求梳理/20170414  数据类型级公式.xlsx
+++ b/程序员客栈项目/因卓科技教育平台/需求梳理/20170414  数据类型级公式.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -554,7 +554,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -740,8 +740,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1109,24 +1109,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="28.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.3984375" style="1" customWidth="1"/>
     <col min="2" max="2" width="37" style="1" customWidth="1"/>
     <col min="3" max="3" width="28" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.69921875" style="1" customWidth="1"/>
     <col min="6" max="6" width="31" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.19921875" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="4"/>
       <c r="B7" s="10"/>
       <c r="C7" s="13" t="s">
@@ -1166,7 +1166,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="55.2">
       <c r="A8" s="4"/>
       <c r="B8" s="8"/>
       <c r="C8" s="13" t="s">
@@ -1188,7 +1188,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="41.4">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="55.2">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="41.4">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="41.4">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="55.2">
       <c r="A13" s="4" t="s">
         <v>55</v>
       </c>
@@ -1304,7 +1304,7 @@
       <c r="G13" s="15"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="50.25" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -1322,7 +1322,7 @@
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="55.2">
       <c r="A15" s="4" t="s">
         <v>49</v>
       </c>
@@ -1340,7 +1340,7 @@
       <c r="G15" s="15"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="82.8">
       <c r="A16" s="4" t="s">
         <v>9</v>
       </c>
@@ -1354,7 +1354,7 @@
       <c r="G16" s="15"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="41.4">
       <c r="A17" s="4" t="s">
         <v>44</v>
       </c>
@@ -1368,7 +1368,7 @@
       <c r="G17" s="15"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="27.6">
       <c r="A18" s="4" t="s">
         <v>47</v>
       </c>
@@ -1384,7 +1384,7 @@
       <c r="G18" s="15"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="27.6">
       <c r="A19" s="16" t="s">
         <v>62</v>
       </c>
@@ -1398,7 +1398,7 @@
       <c r="G19" s="15"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="41.4">
       <c r="A20" s="4" t="s">
         <v>10</v>
       </c>
@@ -1412,7 +1412,7 @@
       <c r="G20" s="15"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="2"/>
@@ -1422,7 +1422,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="27.6">
       <c r="A22" s="3" t="s">
         <v>37</v>
       </c>
@@ -1436,7 +1436,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="2"/>
@@ -1446,7 +1446,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="3" t="s">
         <v>12</v>
       </c>
@@ -1460,21 +1460,21 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="31" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="34.5" customHeight="1"/>
+    <row r="32" spans="1:8">
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:4">
       <c r="D38" s="11"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:4">
       <c r="D39" s="11"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:4">
       <c r="D40" s="11"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:4">
       <c r="D41" s="11"/>
     </row>
   </sheetData>
@@ -1493,30 +1493,30 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="28.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.3984375" style="1" customWidth="1"/>
     <col min="2" max="2" width="37" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.8984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.69921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.69921875" style="1" customWidth="1"/>
     <col min="6" max="6" width="31" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.5" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>40</v>
       </c>
@@ -1554,7 +1554,7 @@
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
         <v>36</v>
       </c>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="41.4">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -1594,7 +1594,7 @@
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="55.2">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -1632,7 +1632,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="41.4">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
@@ -1650,7 +1650,7 @@
       </c>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="55.2">
       <c r="A13" s="3" t="s">
         <v>55</v>
       </c>
@@ -1668,7 +1668,7 @@
       </c>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="41.4">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1686,7 +1686,7 @@
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="55.2">
       <c r="A15" s="3" t="s">
         <v>49</v>
       </c>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="82.8">
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="41.4">
       <c r="A17" s="3" t="s">
         <v>44</v>
       </c>
@@ -1736,7 +1736,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="27.6">
       <c r="A18" s="3" t="s">
         <v>47</v>
       </c>
@@ -1752,7 +1752,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="27.6">
       <c r="A19" s="12" t="s">
         <v>62</v>
       </c>
@@ -1766,7 +1766,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="41.4">
       <c r="A20" s="3" t="s">
         <v>10</v>
       </c>
@@ -1780,7 +1780,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="2"/>
@@ -1790,7 +1790,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="27.6">
       <c r="A22" s="3" t="s">
         <v>37</v>
       </c>
@@ -1804,7 +1804,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" s="3" t="s">
         <v>11</v>
       </c>
@@ -1816,7 +1816,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="3" t="s">
         <v>12</v>
       </c>
@@ -1828,7 +1828,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="31" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="34.5" customHeight="1">
       <c r="B31" s="1" t="s">
         <v>48</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="1">
@@ -1847,10 +1847,10 @@
         <v>1.142857142857143</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="D38" s="11"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
         <v>58</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
         <v>57</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="D41" s="11"/>
     </row>
   </sheetData>
